--- a/Doc/导出配置/Property.xlsx
+++ b/Doc/导出配置/Property.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PokerGame\Doc\导出配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D734FC0-5287-4C8A-8EC8-A18630D5994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF9529-A537-4C05-8BB5-F60A83383335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cfg_Property" sheetId="1" r:id="rId1"/>
+    <sheet name="属性代码生成辅助" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{121600EA-1AB6-4628-9804-DEA9CA43CBBB}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CECBD304-0410-4056-AC18-697CE0AD75A9}">
       <text>
         <r>
           <rPr>
@@ -38,7 +40,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{ABC2411D-E616-425D-8869-CC7FF92C3DAE}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58B19ABC-C35C-418A-88A5-48AC755048B4}">
       <text>
         <r>
           <rPr>
@@ -60,51 +61,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-type
-【表头】：
-c
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C4D27CEE-65A7-4159-86B5-EAA96427C176}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-subType
-【表头】：
-c
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7A835055-5031-455D-88C8-FB69962AD8EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -118,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A5B7AD98-2C72-435E-802A-53D205BC344F}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{276D9E09-1222-431C-B2C1-3E4ADE953A27}">
       <text>
         <r>
           <rPr>
@@ -126,7 +82,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -140,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6666A2D9-50F1-4D4D-8834-DAF8EC89B561}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0AFE16E8-0EB9-4CA4-B07B-B6C1E29B51B1}">
       <text>
         <r>
           <rPr>
@@ -148,7 +103,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -162,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2C6F6F18-0C06-4190-9686-C648C8405974}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DD960B92-AA62-4F0D-A009-E28E985F8603}">
       <text>
         <r>
           <rPr>
@@ -170,29 +124,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-displayType
-【表头】：
-c
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{5D12D68C-52B0-4543-815D-B2E264207E9A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -206,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A04D6A1D-FC8D-4E95-A10B-A4F6D49B59DF}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FEFB3BBE-26EF-4864-926F-1EF7857B8643}">
       <text>
         <r>
           <rPr>
@@ -214,7 +145,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -224,11 +154,15 @@
 【数据类型】：
 字符
 【为空是否导出】：
-false</t>
+false
+【默认值】：
+1
+【字段描述】：
+显示用，除以的系数，例如幸运的数值为5000，显示上会除以10000，即0.5，显示为50%</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{70D077D9-781D-4BD6-9353-882BD7193459}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4D3B481C-169D-4A23-A315-D39D7D7028EA}">
       <text>
         <r>
           <rPr>
@@ -236,11 +170,91 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
-maxValue
+displayType
+【表头】：
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false
+【字段描述】：
+默认不用填，不填即为正常显示的数值
+字符	描述	示例
+"0"	零占位符	12.345 ("000.000") → 012.345
+"#"	数字占位符	12.345 ("###.###") → 12.345
+"."	小数点	
+","	千位分隔符	1234567 ("#,#") → 1,234,567
+"%"	百分比	0.123 ("0.00%") → 12.30%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{69288E83-63C1-46B3-8379-6D65B0C7A6F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+min
+【表头】：
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false
+【默认值】：
+0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{34D9556C-67E8-4855-9776-E31B870D7D8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">【字段名】：
+minMethod
+【表头】：
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false
+【默认值】：
+0
+【枚举值列表】：
+tbl_枚举_属性超限处理
+[成功 = 0]：成功，可超过限制
+[失败 = 1]：失败，无法增加/减少/设置属性，返回错误码
+[设置为限制 = 2]：将属性值设置为限制值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{47776F79-0BAD-422A-91AB-6CE1DC949EF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>【字段名】：
+max
 【表头】：
 c
 【数据类型】：
@@ -250,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{6D1AB7B6-31FA-476A-AD86-89FC5F449E2F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9DCAA10C-A766-4C50-A735-2A8E880C927E}">
       <text>
         <r>
           <rPr>
@@ -258,7 +272,35 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">【字段名】：
+maxMethod
+【表头】：
+c
+【数据类型】：
+字符
+【为空是否导出】：
+false
+【默认值】：
+0
+【枚举值列表】：
+tbl_枚举_属性超限处理
+[成功 = 0]：成功，可超过限制
+[失败 = 1]：失败，无法增加/减少/设置属性，返回错误码
+[设置为限制 = 2]：将属性值设置为限制值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7C4C6B4E-95AF-484C-A709-3F907173785B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>【字段名】：
@@ -277,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,14 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,9 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字</t>
-  </si>
-  <si>
     <t>枚举名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,19 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>战斗</t>
-  </si>
-  <si>
-    <t>经济</t>
-  </si>
-  <si>
     <t>幸运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReduceHpRestore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,18 +845,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Akt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,9 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前</t>
-  </si>
-  <si>
     <t>显示颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,14 +933,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PhyPercent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,14 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1006,15 +993,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据出手速度大小判断出手顺序，如果速度一致，则按照我敌的位置顺序优先</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生效值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超下限处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超上限处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1068,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1087,7 +1105,30 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1141,6 +1182,8 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1153,9 +1196,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1164,6 +1207,8 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1176,9 +1221,59 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1295,32 +1390,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1401,19 +1473,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{100E7CEC-1A4F-420D-BB6B-A17035948EBB}" name="Cfg_Property" displayName="Cfg_Property" ref="A1:K62" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D2FC6B4B-167C-4D9F-B48B-BAE0E7C444DF}" name="id" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{538CB43B-EF72-42EB-B577-9150D86D1A1D}" name="类型" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CBB15129-31E5-4696-8C62-BF15DECD39DC}" name="子类型" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{148AAF50-6A90-4D77-975D-AB72C9AFC2AE}" name="枚举名称" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{AE80ADAC-C7BC-4C90-AC4D-0BEBDC113A66}" name="显示名称" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{71BC1DB2-3212-4E16-9DA1-CAC4E9A2C703}" name="显示颜色" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2C9E0DDF-3BA8-4AC2-893D-9CDF8DC2F999}" name="显示类型" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8FC3DA60-6EB6-4A41-92F4-64A603771123}" name="初始化值" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{A8DFE4DC-904B-4A48-B0DE-02121CDF601A}" name="生效值" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{B7EF07F4-8703-4CC1-A643-BEAF7A9C5FA0}" name="属性上限" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{C5668DDF-9894-4882-8255-FDABFC97BF72}" name="属性描述" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{100E7CEC-1A4F-420D-BB6B-A17035948EBB}" name="Cfg_Property" displayName="Cfg_Property" ref="A1:M62" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D2FC6B4B-167C-4D9F-B48B-BAE0E7C444DF}" name="id" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{20484817-2F7B-401F-8704-0806FEF34864}" name="分组" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{148AAF50-6A90-4D77-975D-AB72C9AFC2AE}" name="枚举名称" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AE80ADAC-C7BC-4C90-AC4D-0BEBDC113A66}" name="显示名称" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{71BC1DB2-3212-4E16-9DA1-CAC4E9A2C703}" name="显示颜色" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8FC3DA60-6EB6-4A41-92F4-64A603771123}" name="初始化值" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A8DFE4DC-904B-4A48-B0DE-02121CDF601A}" name="生效值" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{3D21E091-3B8A-4981-B66D-61F08BF9B26E}" name="格式" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{1F161CC3-AE6E-44AA-A037-5BC87DB68766}" name="下限" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{5A8819C0-D545-4145-AD31-8C5065653BF2}" name="超下限处理" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B7EF07F4-8703-4CC1-A643-BEAF7A9C5FA0}" name="上限" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{50798A1B-D983-4C28-B229-FDAED6D7A07D}" name="超上限处理" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{C5668DDF-9894-4882-8255-FDABFC97BF72}" name="属性描述" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{874FB219-5240-44BD-A7B8-02AD6417982C}" name="辅助_属性分组" displayName="辅助_属性分组" ref="A1:D2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{874FB219-5240-44BD-A7B8-02AD6417982C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B5D6A6F7-AAEC-489A-A982-D454642B9FB1}" name="索引"/>
+    <tableColumn id="4" xr3:uid="{64C8F804-50F6-453C-95D2-735F62062283}" name="类名"/>
+    <tableColumn id="2" xr3:uid="{9D653032-0D75-4239-958F-585FB5B3B1A7}" name="文件名"/>
+    <tableColumn id="3" xr3:uid="{880DFEEF-A9D1-4BEB-8228-F611FA9F52BE}" name="数据"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1682,1596 +1769,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>10000</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
         <v>8000</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
+        <v>159</v>
+      </c>
+      <c r="F4" s="1">
         <v>10000</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
+        <v>160</v>
+      </c>
+      <c r="F5" s="1">
         <v>8000</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
         <v>200</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
         <v>300</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>102</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1">
+        <v>141</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>103</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>104</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1">
         <v>5000</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>9000</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>105</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1">
+        <v>88</v>
+      </c>
+      <c r="F11" s="1">
         <v>15000</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>106</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1">
         <v>6000</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>9000</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>107</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="1">
+        <v>175</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M13" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>200</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
         <v>15</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>201</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>202</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1">
         <v>300</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>203</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1">
         <v>100</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>300</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1">
+        <v>134</v>
+      </c>
+      <c r="F18" s="1">
         <v>10000</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>301</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="1">
+        <v>135</v>
+      </c>
+      <c r="F19" s="1">
         <v>5000</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>400</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1">
         <v>1000</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>401</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1">
+        <v>137</v>
+      </c>
+      <c r="F21" s="1">
         <v>200</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>402</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1">
         <v>15000</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>500</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="1">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1">
         <v>15</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>501</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="1">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1">
         <v>300</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>502</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="1">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>503</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="1">
+        <v>144</v>
+      </c>
+      <c r="F26" s="1">
         <v>200</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>508</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="1">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1">
         <v>15</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>509</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="1">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1">
         <v>300</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>510</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="1">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1">
         <v>10</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>511</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="1">
+        <v>146</v>
+      </c>
+      <c r="F30" s="1">
         <v>200</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>600</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1">
         <v>19</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>601</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="1">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>602</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="1">
+        <v>147</v>
+      </c>
+      <c r="F33" s="1">
         <v>50</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>603</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="1">
+        <v>148</v>
+      </c>
+      <c r="F34" s="1">
         <v>200</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>700</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="1">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1">
         <v>10000</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M35" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>701</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="1">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1">
         <v>1500</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>7500</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>702</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="1">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1">
         <v>500</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>2000</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>703</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="1">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1">
         <v>200</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M38" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>800</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="1">
+        <v>164</v>
+      </c>
+      <c r="F39" s="1">
         <v>10000</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>801</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="1">
+        <v>86</v>
+      </c>
+      <c r="F40" s="1">
         <v>500</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>7500</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>802</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="1">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1">
         <v>500</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>2000</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>803</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="1">
+        <v>153</v>
+      </c>
+      <c r="F42" s="1">
         <v>300</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>900</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="1">
+        <v>165</v>
+      </c>
+      <c r="F43" s="1">
         <v>10000</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M43" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>901</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="1">
+        <v>84</v>
+      </c>
+      <c r="F44" s="1">
         <v>500</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>7500</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M44" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>902</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="1">
+        <v>83</v>
+      </c>
+      <c r="F45" s="1">
         <v>500</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>2000</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>903</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="1">
+        <v>152</v>
+      </c>
+      <c r="F46" s="1">
         <v>300</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M46" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1000</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1">
+        <v>166</v>
+      </c>
+      <c r="F47" s="1">
         <v>10000</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M47" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1001</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1">
+        <v>82</v>
+      </c>
+      <c r="F48" s="1">
         <v>500</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>7500</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M48" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>1002</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="1">
+        <v>81</v>
+      </c>
+      <c r="F49" s="1">
         <v>500</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>2000</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M49" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1003</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="1">
+        <v>151</v>
+      </c>
+      <c r="F50" s="1">
         <v>300</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M50" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1100</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="1">
+        <v>167</v>
+      </c>
+      <c r="F51" s="1">
         <v>10000</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M51" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1101</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="1">
+        <v>80</v>
+      </c>
+      <c r="F52" s="1">
         <v>500</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>7500</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M52" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1102</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="1">
+        <v>79</v>
+      </c>
+      <c r="F53" s="1">
         <v>500</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>2000</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M53" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1103</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="1">
+        <v>150</v>
+      </c>
+      <c r="F54" s="1">
         <v>300</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M54" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1200</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="1">
+        <v>168</v>
+      </c>
+      <c r="F55" s="1">
         <v>10000</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M55" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1201</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="1">
+        <v>77</v>
+      </c>
+      <c r="F56" s="1">
         <v>500</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>7500</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1202</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="1">
+        <v>78</v>
+      </c>
+      <c r="F57" s="1">
         <v>500</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>2000</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M57" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1203</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="F58" s="1">
         <v>300</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="M58" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3283,10 +2863,12 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3298,10 +2880,12 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3313,30 +2897,28 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>10000</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="M62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J62 L2:L62" xr:uid="{11F726DE-414D-4E38-91AF-619AA5CC235A}">
+      <formula1>"成功,失败,设置为限制"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3344,4 +2926,37 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE678690-F593-430F-863F-9C7548EB1957}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Doc/导出配置/Property.xlsx
+++ b/Doc/导出配置/Property.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PokerGame\Doc\导出配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF9529-A537-4C05-8BB5-F60A83383335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C2584-D782-4353-8EE2-866C33DC63E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cfg_Property" sheetId="1" r:id="rId1"/>
     <sheet name="属性代码生成辅助" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CECBD304-0410-4056-AC18-697CE0AD75A9}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{097B0729-8914-45F8-A1CC-D446935C2A3C}">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58B19ABC-C35C-418A-88A5-48AC755048B4}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CD3E9182-75DE-4607-B54F-C7C733EA9A38}">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{276D9E09-1222-431C-B2C1-3E4ADE953A27}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2BBEE288-7686-4485-981F-36176605CDDB}">
       <text>
         <r>
           <rPr>
@@ -95,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0AFE16E8-0EB9-4CA4-B07B-B6C1E29B51B1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{97B65B87-CDA5-4D18-ABFF-59D288014D40}">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DD960B92-AA62-4F0D-A009-E28E985F8603}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{348CFB9F-2294-48C7-80AB-C0156D723718}">
       <text>
         <r>
           <rPr>
@@ -133,11 +132,13 @@
 【数据类型】：
 字符
 【为空是否导出】：
-false</t>
+false
+【默认值】：
+0</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FEFB3BBE-26EF-4864-926F-1EF7857B8643}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B393F9BE-ED5B-4756-A041-A4973C7CC35C}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4D3B481C-169D-4A23-A315-D39D7D7028EA}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B0A24BFD-7A57-493F-9129-8C7F8A72D02B}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{69288E83-63C1-46B3-8379-6D65B0C7A6F4}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5279C0EC-B783-4620-8B47-70902DC23E3D}">
       <text>
         <r>
           <rPr>
@@ -214,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{34D9556C-67E8-4855-9776-E31B870D7D8D}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E4976FDF-A948-4C62-9B5D-BC10C95D925F}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{47776F79-0BAD-422A-91AB-6CE1DC949EF8}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{873F2744-5A2A-4606-A332-ACC2B775DF9A}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9DCAA10C-A766-4C50-A735-2A8E880C927E}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{257A709E-8B1B-40E5-AB3D-937FCA20BD2C}">
       <text>
         <r>
           <rPr>
@@ -293,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7C4C6B4E-95AF-484C-A709-3F907173785B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2EF48699-E73F-48AB-871D-DA717E110F32}">
       <text>
         <r>
           <rPr>
@@ -319,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="196">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,18 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Akt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力，展示为最大和最小攻击的平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>降低生命恢复速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -997,14 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生效值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1021,10 +1002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,6 +1012,64 @@
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示生效值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置为限制</t>
+  </si>
+  <si>
+    <t>###.##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全战斗属性|战斗中属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中使用的属性组，主要和战斗属性不同的点在于会多一些当前属性，例如当前血量，当前蓝量等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以参与战斗的单位身上的属性组，主要是养成结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1140,126 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1473,34 +1627,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{100E7CEC-1A4F-420D-BB6B-A17035948EBB}" name="Cfg_Property" displayName="Cfg_Property" ref="A1:M62" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{100E7CEC-1A4F-420D-BB6B-A17035948EBB}" name="Cfg_Property" displayName="Cfg_Property" ref="A1:M61" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D2FC6B4B-167C-4D9F-B48B-BAE0E7C444DF}" name="id" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{20484817-2F7B-401F-8704-0806FEF34864}" name="分组" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{148AAF50-6A90-4D77-975D-AB72C9AFC2AE}" name="枚举名称" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AE80ADAC-C7BC-4C90-AC4D-0BEBDC113A66}" name="显示名称" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{71BC1DB2-3212-4E16-9DA1-CAC4E9A2C703}" name="显示颜色" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8FC3DA60-6EB6-4A41-92F4-64A603771123}" name="初始化值" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{A8DFE4DC-904B-4A48-B0DE-02121CDF601A}" name="生效值" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{3D21E091-3B8A-4981-B66D-61F08BF9B26E}" name="格式" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{1F161CC3-AE6E-44AA-A037-5BC87DB68766}" name="下限" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{5A8819C0-D545-4145-AD31-8C5065653BF2}" name="超下限处理" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B7EF07F4-8703-4CC1-A643-BEAF7A9C5FA0}" name="上限" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{50798A1B-D983-4C28-B229-FDAED6D7A07D}" name="超上限处理" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{C5668DDF-9894-4882-8255-FDABFC97BF72}" name="属性描述" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2FC6B4B-167C-4D9F-B48B-BAE0E7C444DF}" name="id" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{20484817-2F7B-401F-8704-0806FEF34864}" name="分组" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{148AAF50-6A90-4D77-975D-AB72C9AFC2AE}" name="枚举名称" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{AE80ADAC-C7BC-4C90-AC4D-0BEBDC113A66}" name="显示名称" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{71BC1DB2-3212-4E16-9DA1-CAC4E9A2C703}" name="显示颜色" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8FC3DA60-6EB6-4A41-92F4-64A603771123}" name="初始化值" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{A8DFE4DC-904B-4A48-B0DE-02121CDF601A}" name="显示生效值" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{3D21E091-3B8A-4981-B66D-61F08BF9B26E}" name="显示格式" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{1F161CC3-AE6E-44AA-A037-5BC87DB68766}" name="下限" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{5A8819C0-D545-4145-AD31-8C5065653BF2}" name="超下限处理" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B7EF07F4-8703-4CC1-A643-BEAF7A9C5FA0}" name="上限" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{50798A1B-D983-4C28-B229-FDAED6D7A07D}" name="超上限处理" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C5668DDF-9894-4882-8255-FDABFC97BF72}" name="属性描述" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{874FB219-5240-44BD-A7B8-02AD6417982C}" name="辅助_属性分组" displayName="辅助_属性分组" ref="A1:D2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{874FB219-5240-44BD-A7B8-02AD6417982C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5D6A6F7-AAEC-489A-A982-D454642B9FB1}" name="索引"/>
-    <tableColumn id="4" xr3:uid="{64C8F804-50F6-453C-95D2-735F62062283}" name="类名"/>
-    <tableColumn id="2" xr3:uid="{9D653032-0D75-4239-958F-585FB5B3B1A7}" name="文件名"/>
-    <tableColumn id="3" xr3:uid="{880DFEEF-A9D1-4BEB-8228-F611FA9F52BE}" name="数据"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{874FB219-5240-44BD-A7B8-02AD6417982C}" name="辅助_属性分组" displayName="辅助_属性分组" ref="A1:E3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E3" xr:uid="{874FB219-5240-44BD-A7B8-02AD6417982C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B5D6A6F7-AAEC-489A-A982-D454642B9FB1}" name="索引" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{64C8F804-50F6-453C-95D2-735F62062283}" name="类名" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9D653032-0D75-4239-958F-585FB5B3B1A7}" name="文件名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{880DFEEF-A9D1-4BEB-8228-F611FA9F52BE}" name="数据分组" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9F3931FC-0C41-47C2-A9BF-7D7FCD2BDFD8}" name="说明" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1767,24 +1928,61 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0315B06B-47B9-45E1-A3D1-22D071729268}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9463A621-FDA7-49D7-95E9-3621C0110B34}">
+  <we:reference id="wa200006007" version="1.2.3.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200006007" version="1.2.3.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="57.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
     <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1796,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1805,28 +2003,28 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>91</v>
@@ -1836,6 +2034,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1853,6 +2054,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1870,17 +2074,26 @@
       <c r="A4" s="1">
         <v>10</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F4" s="1">
         <v>10000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>92</v>
@@ -1890,17 +2103,26 @@
       <c r="A5" s="1">
         <v>11</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F5" s="1">
         <v>8000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>93</v>
@@ -1910,6 +2132,9 @@
       <c r="A6" s="1">
         <v>100</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1927,6 +2152,9 @@
       <c r="A7" s="1">
         <v>101</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1942,192 +2170,255 @@
     </row>
     <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1">
-        <v>50</v>
+        <v>5000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9000</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>9000</v>
+        <v>15000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1">
-        <v>15000</v>
+        <v>6000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9000</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="F12" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>107</v>
+        <v>200</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>203</v>
+        <v>300</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>106</v>
@@ -2135,33 +2426,39 @@
     </row>
     <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>301</v>
+        <v>400</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>107</v>
@@ -2169,689 +2466,986 @@
     </row>
     <row r="21" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" s="1">
-        <v>200</v>
+        <v>15000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>402</v>
+        <v>500</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1">
-        <v>15000</v>
+        <v>15</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
-        <v>15</v>
+        <v>300</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>503</v>
+        <v>508</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>15</v>
+        <v>300</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F28" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>511</v>
+        <v>600</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>600</v>
+        <v>601</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
-        <v>19</v>
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>601</v>
+        <v>602</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="1">
         <v>50</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="1">
-        <v>100</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>603</v>
+        <v>700</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1">
-        <v>200</v>
+        <v>10000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>700</v>
+        <v>701</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>10000</v>
+        <v>1500</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="1">
+        <v>7500</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1">
-        <v>1500</v>
+        <v>500</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="K36" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1">
-        <v>500</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2000</v>
+        <v>200</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>703</v>
+        <v>800</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="F38" s="1">
-        <v>200</v>
+        <v>10000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>800</v>
+        <v>801</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="F39" s="1">
-        <v>10000</v>
+        <v>500</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K39" s="1">
+        <v>7500</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1">
         <v>500</v>
       </c>
+      <c r="G40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="K40" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1">
-        <v>500</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2000</v>
+        <v>300</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>803</v>
+        <v>900</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F42" s="1">
-        <v>300</v>
+        <v>10000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>900</v>
+        <v>901</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1">
-        <v>10000</v>
+        <v>500</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K43" s="1">
+        <v>7500</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>901</v>
+        <v>902</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1">
         <v>500</v>
       </c>
+      <c r="G44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="K44" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>902</v>
+        <v>903</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="F45" s="1">
-        <v>500</v>
-      </c>
-      <c r="K45" s="1">
-        <v>2000</v>
+        <v>300</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>903</v>
+        <v>1000</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F46" s="1">
-        <v>300</v>
+        <v>10000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>1000</v>
+        <v>1001</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="F47" s="1">
-        <v>10000</v>
+        <v>500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K47" s="1">
+        <v>7500</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>1001</v>
+        <v>1002</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" s="1">
         <v>500</v>
       </c>
+      <c r="G48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="K48" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>1002</v>
+        <v>1003</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1">
-        <v>500</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2000</v>
+        <v>300</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1003</v>
+        <v>1100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F50" s="1">
-        <v>300</v>
+        <v>10000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1100</v>
+        <v>1101</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="F51" s="1">
-        <v>10000</v>
+        <v>500</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7500</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1101</v>
+        <v>1102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="1">
         <v>500</v>
       </c>
+      <c r="G52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="K52" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1102</v>
+        <v>1103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1">
-        <v>500</v>
-      </c>
-      <c r="K53" s="1">
-        <v>2000</v>
+        <v>300</v>
+      </c>
+      <c r="G53" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1103</v>
+        <v>1200</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F54" s="1">
-        <v>300</v>
+        <v>10000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1200</v>
+        <v>1201</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="F55" s="1">
-        <v>10000</v>
+        <v>500</v>
+      </c>
+      <c r="G55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K55" s="1">
+        <v>7500</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1201</v>
+        <v>1202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" s="1">
         <v>500</v>
       </c>
+      <c r="G56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="K56" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1202</v>
+        <v>1203</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F57" s="1">
-        <v>500</v>
-      </c>
-      <c r="K57" s="1">
-        <v>2000</v>
+        <v>300</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>1203</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="1">
-        <v>300</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2868,7 +3462,7 @@
     </row>
     <row r="60" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2884,38 +3478,24 @@
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="A61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M62" s="1"/>
+      <c r="M61" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J62 L2:L62" xr:uid="{11F726DE-414D-4E38-91AF-619AA5CC235A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J61 L2:L61" xr:uid="{11F726DE-414D-4E38-91AF-619AA5CC235A}">
       <formula1>"成功,失败,设置为限制"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2930,26 +3510,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE678690-F593-430F-863F-9C7548EB1957}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
-        <v>183</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
